--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha1F-HW45.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>1.002767539300796</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.004263002895115</v>
+      </c>
+      <c r="D16">
+        <v>1.015243375825277</v>
+      </c>
+      <c r="E16">
+        <v>0.998206045989162</v>
+      </c>
+      <c r="F16">
+        <v>1.004263002895115</v>
+      </c>
+      <c r="G16">
+        <v>1.006928091757363</v>
+      </c>
+      <c r="H16">
+        <v>0.9995347420427434</v>
+      </c>
+      <c r="I16">
+        <v>1.001212588345775</v>
+      </c>
+      <c r="J16">
+        <v>1.015243375825277</v>
+      </c>
+      <c r="K16">
+        <v>1.006724710907219</v>
+      </c>
+      <c r="L16">
+        <v>1.005493856901167</v>
+      </c>
+      <c r="M16">
+        <v>1.004231307809239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.004263002895115</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9931240000000006</v>
+        <v>1.004263002895115</v>
       </c>
       <c r="D10">
-        <v>1.031467999999999</v>
+        <v>1.015243375825277</v>
       </c>
       <c r="E10">
-        <v>1.002080000000002</v>
+        <v>0.998206045989162</v>
       </c>
       <c r="F10">
-        <v>0.9931240000000006</v>
+        <v>1.004263002895115</v>
       </c>
       <c r="G10">
-        <v>1.018547999999999</v>
+        <v>1.006928091757363</v>
       </c>
       <c r="H10">
-        <v>1.001468</v>
+        <v>0.9995347420427434</v>
       </c>
       <c r="I10">
-        <v>1.000415999999999</v>
+        <v>1.001212588345775</v>
       </c>
       <c r="J10">
-        <v>1.031467999999999</v>
+        <v>1.015243375825277</v>
       </c>
       <c r="K10">
-        <v>1.016774000000001</v>
+        <v>1.006724710907219</v>
       </c>
       <c r="L10">
-        <v>1.004949000000001</v>
+        <v>1.005493856901167</v>
       </c>
       <c r="M10">
-        <v>1.007850666666666</v>
+        <v>1.004231307809239</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.99</v>
+        <v>1.0020827473242</v>
       </c>
       <c r="D11">
-        <v>1.043887499999999</v>
+        <v>1.001629628650072</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.002900159458971</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>1.0020827473242</v>
       </c>
       <c r="G11">
-        <v>1.03</v>
+        <v>1.000792327232479</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>1.007009296195424</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.001519202971311</v>
       </c>
       <c r="J11">
-        <v>1.043887499999999</v>
+        <v>1.001629628650072</v>
       </c>
       <c r="K11">
-        <v>1.021943749999999</v>
+        <v>1.002264894054522</v>
       </c>
       <c r="L11">
-        <v>1.005971875</v>
+        <v>1.002173820689361</v>
       </c>
       <c r="M11">
-        <v>1.010647916666666</v>
+        <v>1.00265556030541</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9954397073408002</v>
+        <v>1.002032971723338</v>
       </c>
       <c r="D12">
-        <v>1.027020472729596</v>
+        <v>1.001692589617002</v>
       </c>
       <c r="E12">
-        <v>1.000843203174398</v>
+        <v>1.002907880122454</v>
       </c>
       <c r="F12">
-        <v>0.9954397073408002</v>
+        <v>1.002032971723338</v>
       </c>
       <c r="G12">
-        <v>1.017484850380798</v>
+        <v>1.000773911645138</v>
       </c>
       <c r="H12">
-        <v>1.001577954918399</v>
+        <v>1.00701232816197</v>
       </c>
       <c r="I12">
-        <v>0.9998255251456001</v>
+        <v>1.001494237774671</v>
       </c>
       <c r="J12">
-        <v>1.027020472729596</v>
+        <v>1.001692589617002</v>
       </c>
       <c r="K12">
-        <v>1.013931837951997</v>
+        <v>1.002300234869728</v>
       </c>
       <c r="L12">
-        <v>1.004685772646399</v>
+        <v>1.002166603296533</v>
       </c>
       <c r="M12">
-        <v>1.007031952281599</v>
+        <v>1.002652319840762</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.003454490005157</v>
+        <v>1.002071122651546</v>
       </c>
       <c r="D13">
-        <v>1.003892631781617</v>
+        <v>1.001621384540416</v>
       </c>
       <c r="E13">
-        <v>1.002309231329607</v>
+        <v>1.002903002257248</v>
       </c>
       <c r="F13">
-        <v>1.003454490005157</v>
+        <v>1.002071122651546</v>
       </c>
       <c r="G13">
-        <v>1.001763654542156</v>
+        <v>1.00076786329088</v>
       </c>
       <c r="H13">
-        <v>1.003672660080131</v>
+        <v>1.006993768153334</v>
       </c>
       <c r="I13">
-        <v>1.001083391245056</v>
+        <v>1.00151139352175</v>
       </c>
       <c r="J13">
-        <v>1.003892631781617</v>
+        <v>1.001621384540416</v>
       </c>
       <c r="K13">
-        <v>1.003100931555612</v>
+        <v>1.002262193398832</v>
       </c>
       <c r="L13">
-        <v>1.003277710780385</v>
+        <v>1.002166658025189</v>
       </c>
       <c r="M13">
-        <v>1.002696009830621</v>
+        <v>1.002644755735862</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.003253477903471</v>
+        <v>0.9931240000000006</v>
       </c>
       <c r="D14">
-        <v>1.002633349208918</v>
+        <v>1.031467999999999</v>
       </c>
       <c r="E14">
-        <v>1.002112904197789</v>
+        <v>1.002080000000002</v>
       </c>
       <c r="F14">
-        <v>1.003253477903471</v>
+        <v>0.9931240000000006</v>
       </c>
       <c r="G14">
-        <v>1.000670299236557</v>
+        <v>1.018547999999999</v>
       </c>
       <c r="H14">
-        <v>1.005432656495482</v>
+        <v>1.001468</v>
       </c>
       <c r="I14">
-        <v>1.002227748980802</v>
+        <v>1.000415999999999</v>
       </c>
       <c r="J14">
-        <v>1.002633349208918</v>
+        <v>1.031467999999999</v>
       </c>
       <c r="K14">
-        <v>1.002373126703354</v>
+        <v>1.016774000000001</v>
       </c>
       <c r="L14">
-        <v>1.002813302303412</v>
+        <v>1.004949000000001</v>
       </c>
       <c r="M14">
-        <v>1.00272173933717</v>
+        <v>1.007850666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.004546411594985</v>
+        <v>0.99</v>
       </c>
       <c r="D15">
-        <v>1.001288074648337</v>
+        <v>1.043887499999999</v>
       </c>
       <c r="E15">
-        <v>1.00297289578985</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.004546411594985</v>
+        <v>0.99</v>
       </c>
       <c r="G15">
-        <v>0.9999812316788993</v>
+        <v>1.03</v>
       </c>
       <c r="H15">
-        <v>1.005880057747088</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1.001936564345619</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1.001288074648337</v>
+        <v>1.043887499999999</v>
       </c>
       <c r="K15">
-        <v>1.002130485219094</v>
+        <v>1.021943749999999</v>
       </c>
       <c r="L15">
-        <v>1.003338448407039</v>
+        <v>1.005971875</v>
       </c>
       <c r="M15">
-        <v>1.002767539300796</v>
+        <v>1.010647916666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004263002895115</v>
+        <v>0.9954397073408002</v>
       </c>
       <c r="D16">
-        <v>1.015243375825277</v>
+        <v>1.027020472729596</v>
       </c>
       <c r="E16">
-        <v>0.998206045989162</v>
+        <v>1.000843203174398</v>
       </c>
       <c r="F16">
-        <v>1.004263002895115</v>
+        <v>0.9954397073408002</v>
       </c>
       <c r="G16">
-        <v>1.006928091757363</v>
+        <v>1.017484850380798</v>
       </c>
       <c r="H16">
-        <v>0.9995347420427434</v>
+        <v>1.001577954918399</v>
       </c>
       <c r="I16">
-        <v>1.001212588345775</v>
+        <v>0.9998255251456001</v>
       </c>
       <c r="J16">
-        <v>1.015243375825277</v>
+        <v>1.027020472729596</v>
       </c>
       <c r="K16">
-        <v>1.006724710907219</v>
+        <v>1.013931837951997</v>
       </c>
       <c r="L16">
-        <v>1.005493856901167</v>
+        <v>1.004685772646399</v>
       </c>
       <c r="M16">
-        <v>1.004231307809239</v>
+        <v>1.007031952281599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.003454490005157</v>
+      </c>
+      <c r="D17">
+        <v>1.003892631781617</v>
+      </c>
+      <c r="E17">
+        <v>1.002309231329607</v>
+      </c>
+      <c r="F17">
+        <v>1.003454490005157</v>
+      </c>
+      <c r="G17">
+        <v>1.001763654542156</v>
+      </c>
+      <c r="H17">
+        <v>1.003672660080131</v>
+      </c>
+      <c r="I17">
+        <v>1.001083391245056</v>
+      </c>
+      <c r="J17">
+        <v>1.003892631781617</v>
+      </c>
+      <c r="K17">
+        <v>1.003100931555612</v>
+      </c>
+      <c r="L17">
+        <v>1.003277710780385</v>
+      </c>
+      <c r="M17">
+        <v>1.002696009830621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.003253477903471</v>
+      </c>
+      <c r="D18">
+        <v>1.002633349208918</v>
+      </c>
+      <c r="E18">
+        <v>1.002112904197789</v>
+      </c>
+      <c r="F18">
+        <v>1.003253477903471</v>
+      </c>
+      <c r="G18">
+        <v>1.000670299236557</v>
+      </c>
+      <c r="H18">
+        <v>1.005432656495482</v>
+      </c>
+      <c r="I18">
+        <v>1.002227748980802</v>
+      </c>
+      <c r="J18">
+        <v>1.002633349208918</v>
+      </c>
+      <c r="K18">
+        <v>1.002373126703354</v>
+      </c>
+      <c r="L18">
+        <v>1.002813302303412</v>
+      </c>
+      <c r="M18">
+        <v>1.00272173933717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.004546411594985</v>
+      </c>
+      <c r="D19">
+        <v>1.001288074648337</v>
+      </c>
+      <c r="E19">
+        <v>1.00297289578985</v>
+      </c>
+      <c r="F19">
+        <v>1.004546411594985</v>
+      </c>
+      <c r="G19">
+        <v>0.9999812316788993</v>
+      </c>
+      <c r="H19">
+        <v>1.005880057747088</v>
+      </c>
+      <c r="I19">
+        <v>1.001936564345619</v>
+      </c>
+      <c r="J19">
+        <v>1.001288074648337</v>
+      </c>
+      <c r="K19">
+        <v>1.002130485219094</v>
+      </c>
+      <c r="L19">
+        <v>1.003338448407039</v>
+      </c>
+      <c r="M19">
+        <v>1.002767539300796</v>
       </c>
     </row>
   </sheetData>
